--- a/Tesztesetek.xlsx
+++ b/Tesztesetek.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhly5Wz7D4nXjwX5Jt36qw3QZaeZA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgwmI3e8F1DXBq2pVt3V5N9KULsCQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Teszteset
 (Test Case)</t>
@@ -75,8 +75,7 @@
 3. Adja meg a kívánt felhasználónevet.
 4. Adja meg a kívánt jelszavát.
 5. Erősítse meg az előbb beírt jelszót.
-6. Adja meg e-mail címét.
-7. Írja be a Captcha-t.
+6. Írja be a Captcha-t.
 8. Kattintson a regisztrációs gombra.</t>
     </r>
   </si>
@@ -97,9 +96,9 @@
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">  
-KissBela123 / TNY=-pG.8T*gNGv
-valami@valami.com
-Captcha
+Név: Tesztuser123454321 
+Jelszó: TesztJelszo12345543221
+Captcha: valamivalami
 </t>
     </r>
   </si>
@@ -109,9 +108,8 @@
 3. Beírta a felhasználónevet.
 4. Beírta a választott jelszót.
 5. Újra megadta a választott jelszót.
-6. Beírtra az e-mail címét.
-7. Kitöltötte a Captchat.
-8. Rákattintott a regisztrációsgombra és létrejött a fiókja.</t>
+6. Kitöltötte a Captchat.
+7. Rákattintott a regisztrációsgombra és létrejött a fiókja.</t>
   </si>
   <si>
     <t>Létrejött a megadott felhasználónévvel és jelszóval a fiók.</t>
@@ -516,9 +514,6 @@
     <t xml:space="preserve">Belépést követően az adatlapon megtörténik az aláírás modosítása a kívánt szöveggel </t>
   </si>
   <si>
-    <t>Ismételt és sorozatos bevitel külső listából</t>
-  </si>
-  <si>
     <t>Meglévő adat modosítása</t>
   </si>
   <si>
@@ -608,6 +603,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/Main_Page</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color rgb="FF434343"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">  
+KissBela123 / TNY=-pG.8T*gNGv
+</t>
+    </r>
+  </si>
+  <si>
     <t>1. A kívánt weboldal megjelenik.
 2. Megjelenik a belépési adatokat bekérő oldal.
 3. Beírta a felhasználónevet.
@@ -649,17 +665,21 @@
         <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> weboldalra és kattintson a Log in oldalra.
-2. Írjon be egy keresett szót az input mezőbe.
-3. A talált oldalon ctrl+f billentyűkombinációval keresse meg hányszor szerepel az adott szó az oldalon.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sailing</t>
+2. Írjon be a kereső mezőbe a keresendő szót.
+3. A talált oldalon ismételten megadhat egy szót, aminek a darab számát szeretné keresni az oldalon.</t>
+    </r>
+  </si>
+  <si>
+    <t>Keresett szó: Kosztolányi
+Megszámlálni kívánt szó: Dezső</t>
   </si>
   <si>
     <t>1. Megjelenik az oldal.
 2. A szó beírása után a találati oldalra írányít a böngésző.
-3. A tesztadat 147-szer szerepel a megjelenített oldalon</t>
+3. A tesztadat 29-szer szerepel a megjelenített oldalon</t>
+  </si>
+  <si>
+    <t>Sikeres keresés, és számolás az oldalon</t>
   </si>
   <si>
     <t>Kijelentkezés</t>
@@ -832,13 +852,13 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1118,16 +1138,16 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1141,17 +1161,17 @@
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" ht="167.25" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -1163,10 +1183,10 @@
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1185,10 +1205,10 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1207,10 +1227,10 @@
       <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1229,10 +1249,10 @@
       <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1251,122 +1271,108 @@
       <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="167.25" customHeight="1">
+    <row r="9" ht="182.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="182.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="182.25" customHeight="1">
+    <row r="11" ht="167.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" ht="167.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="167.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" ht="167.25" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5"/>
-    </row>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -2348,8 +2354,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -2366,15 +2370,16 @@
     <hyperlink r:id="rId12" ref="C7"/>
     <hyperlink r:id="rId13" ref="B8"/>
     <hyperlink r:id="rId14" ref="C8"/>
-    <hyperlink r:id="rId15" ref="B10"/>
-    <hyperlink r:id="rId16" ref="B11"/>
-    <hyperlink r:id="rId17" ref="B12"/>
-    <hyperlink r:id="rId18" ref="B13"/>
-    <hyperlink r:id="rId19" ref="C13"/>
+    <hyperlink r:id="rId15" ref="B9"/>
+    <hyperlink r:id="rId16" ref="B10"/>
+    <hyperlink r:id="rId17" ref="C10"/>
+    <hyperlink r:id="rId18" ref="B11"/>
+    <hyperlink r:id="rId19" ref="B12"/>
+    <hyperlink r:id="rId20" ref="C12"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>